--- a/data/output/security_loan/provided_security_loan_analysis.xlsx
+++ b/data/output/security_loan/provided_security_loan_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="15">
   <si>
     <t>DataDate</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>20210114</t>
+  </si>
+  <si>
+    <t>20210115</t>
   </si>
   <si>
     <t>hait</t>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -446,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>254</v>
@@ -457,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -468,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>62</v>
@@ -479,10 +482,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -490,10 +493,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -501,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>57</v>
@@ -512,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>99</v>
@@ -523,10 +526,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -534,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>49</v>
@@ -545,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>245</v>
@@ -556,10 +559,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -567,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>67</v>
@@ -578,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>57</v>
@@ -589,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -600,10 +603,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -611,10 +614,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -622,10 +625,10 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -633,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -644,10 +647,10 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -655,10 +658,54 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
         <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/security_loan/provided_security_loan_analysis.xlsx
+++ b/data/output/security_loan/provided_security_loan_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
     <t>DataDate</t>
   </si>
@@ -46,6 +46,9 @@
     <t>20210115</t>
   </si>
   <si>
+    <t>20210119</t>
+  </si>
+  <si>
     <t>hait</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>gtja</t>
+  </si>
+  <si>
+    <t>zx</t>
   </si>
   <si>
     <t>DataFileNotExists</t>
@@ -416,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -449,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>254</v>
@@ -460,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -471,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>62</v>
@@ -482,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -493,10 +499,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -504,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>57</v>
@@ -515,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>99</v>
@@ -526,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -537,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>49</v>
@@ -548,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>245</v>
@@ -559,10 +565,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -570,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>67</v>
@@ -581,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>57</v>
@@ -592,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -603,10 +609,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -614,10 +620,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -625,10 +631,10 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -636,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -647,10 +653,10 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -658,10 +664,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -669,10 +675,10 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -680,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -691,10 +697,10 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -702,10 +708,65 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>13</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/security_loan/provided_security_loan_analysis.xlsx
+++ b/data/output/security_loan/provided_security_loan_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="18">
   <si>
     <t>DataDate</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>20210119</t>
+  </si>
+  <si>
+    <t>20210120</t>
   </si>
   <si>
     <t>hait</t>
@@ -422,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -455,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>254</v>
@@ -466,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -477,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>62</v>
@@ -488,10 +491,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -499,10 +502,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -510,7 +513,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>57</v>
@@ -521,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>99</v>
@@ -532,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -543,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>49</v>
@@ -554,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>245</v>
@@ -565,10 +568,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -576,7 +579,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>67</v>
@@ -587,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>57</v>
@@ -598,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -609,10 +612,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -620,10 +623,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -631,10 +634,10 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -642,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -653,10 +656,10 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -664,10 +667,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -675,10 +678,10 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -686,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -697,10 +700,10 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -708,10 +711,10 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -719,10 +722,10 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -730,10 +733,10 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -741,10 +744,10 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -752,10 +755,10 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -763,10 +766,65 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/security_loan/provided_security_loan_analysis.xlsx
+++ b/data/output/security_loan/provided_security_loan_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="19">
   <si>
     <t>DataDate</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>20210120</t>
+  </si>
+  <si>
+    <t>20210128</t>
   </si>
   <si>
     <t>hait</t>
@@ -425,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -458,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>254</v>
@@ -469,7 +472,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -480,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>62</v>
@@ -491,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -502,10 +505,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -513,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>57</v>
@@ -524,7 +527,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>99</v>
@@ -535,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>49</v>
@@ -557,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>245</v>
@@ -568,10 +571,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -579,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>67</v>
@@ -590,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>57</v>
@@ -601,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -612,10 +615,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -623,10 +626,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -634,10 +637,10 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -645,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -656,10 +659,10 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -667,10 +670,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -678,10 +681,10 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -689,7 +692,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -700,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -711,10 +714,10 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -722,10 +725,10 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -733,10 +736,10 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -744,10 +747,10 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -755,10 +758,10 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -766,7 +769,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>37</v>
@@ -777,10 +780,10 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -788,10 +791,10 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -799,10 +802,10 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -810,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>23</v>
@@ -821,10 +824,65 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
